--- a/documentacao/Planilha de Riscos do Projeto.xlsx
+++ b/documentacao/Planilha de Riscos do Projeto.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aluno\Desktop\blind-market\Documentação\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aluno\Desktop\blind-market\documentacao\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -147,8 +147,24 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -165,18 +181,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2"/>
+        <fgColor theme="1"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
+        <fgColor rgb="FFFF9797"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -199,32 +215,57 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF9797"/>
+      <color rgb="FFFF7575"/>
+      <color rgb="FFFF6565"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -501,8 +542,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -544,10 +585,10 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
+      <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C2" s="3" t="s">
@@ -556,22 +597,22 @@
       <c r="D2" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E2" s="3">
         <v>6</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="6"/>
+      <c r="H2" s="5"/>
     </row>
     <row r="3" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
+      <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="6" t="s">
         <v>12</v>
       </c>
       <c r="C3" s="3" t="s">
@@ -580,24 +621,24 @@
       <c r="D3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="3">
         <v>6</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="H3" s="7" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
+      <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="6" t="s">
         <v>18</v>
       </c>
       <c r="C4" s="3" t="s">
@@ -606,24 +647,24 @@
       <c r="D4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="3">
         <v>6</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="H4" s="7" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
+      <c r="A5" s="3">
         <v>4</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="6" t="s">
         <v>20</v>
       </c>
       <c r="C5" s="3" t="s">
@@ -632,24 +673,24 @@
       <c r="D5" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="3">
         <v>2</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="G5" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="H5" s="6" t="s">
+      <c r="H5" s="7" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
+      <c r="A6" s="3">
         <v>5</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="6" t="s">
         <v>25</v>
       </c>
       <c r="C6" s="3" t="s">
@@ -658,24 +699,24 @@
       <c r="D6" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="3">
         <v>3</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G6" s="5" t="s">
+      <c r="G6" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="H6" s="6" t="s">
+      <c r="H6" s="7" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
+      <c r="A7" s="3">
         <v>6</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="6" t="s">
         <v>29</v>
       </c>
       <c r="C7" s="3" t="s">
@@ -684,24 +725,24 @@
       <c r="D7" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="3">
         <v>3</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G7" s="5" t="s">
+      <c r="G7" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="H7" s="3" t="s">
+      <c r="H7" s="7" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
+      <c r="A8" s="3">
         <v>7</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="6" t="s">
         <v>31</v>
       </c>
       <c r="C8" s="3" t="s">
@@ -710,22 +751,22 @@
       <c r="D8" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="3">
         <v>3</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G8" s="5" t="s">
+      <c r="G8" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="H8" s="6"/>
+      <c r="H8" s="7"/>
     </row>
     <row r="9" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
+      <c r="A9" s="3">
         <v>8</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="6" t="s">
         <v>33</v>
       </c>
       <c r="C9" s="3" t="s">
@@ -734,24 +775,24 @@
       <c r="D9" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9" s="3">
         <v>3</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="G9" s="5" t="s">
+      <c r="G9" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="H9" s="3" t="s">
+      <c r="H9" s="7" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
+      <c r="A10" s="3">
         <v>9</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="6" t="s">
         <v>34</v>
       </c>
       <c r="C10" s="3" t="s">
@@ -760,24 +801,24 @@
       <c r="D10" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E10" s="3">
         <v>3</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="G10" s="5" t="s">
+      <c r="G10" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="H10" s="3" t="s">
+      <c r="H10" s="7" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
+      <c r="A11" s="3">
         <v>10</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="6" t="s">
         <v>36</v>
       </c>
       <c r="C11" s="3" t="s">
@@ -786,20 +827,21 @@
       <c r="D11" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E11" s="3">
         <v>9</v>
       </c>
       <c r="F11" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G11" s="5" t="s">
+      <c r="G11" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="H11" s="3" t="s">
+      <c r="H11" s="7" t="s">
         <v>17</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
--- a/documentacao/Planilha de Riscos do Projeto.xlsx
+++ b/documentacao/Planilha de Riscos do Projeto.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aluno\Desktop\blind-market\documentacao\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aluno\Desktop\blind-market\documentacao\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -181,18 +181,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="1"/>
+        <fgColor rgb="FFFF6565"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF9797"/>
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -228,29 +228,173 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -261,9 +405,9 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFF6565"/>
       <color rgb="FFFF9797"/>
       <color rgb="FFFF7575"/>
-      <color rgb="FFFF6565"/>
     </mruColors>
   </colors>
   <extLst>
@@ -543,7 +687,7 @@
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -559,284 +703,284 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="7" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
+      <c r="A2" s="8">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2" s="1">
         <v>6</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="5"/>
+      <c r="H2" s="9"/>
     </row>
     <row r="3" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
+      <c r="A3" s="8">
         <v>2</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="1">
         <v>6</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="H3" s="10" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
+      <c r="A4" s="8">
         <v>3</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="1">
         <v>6</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="H4" s="7" t="s">
+      <c r="H4" s="10" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
+      <c r="A5" s="8">
         <v>4</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="1">
         <v>2</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="G5" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="H5" s="7" t="s">
+      <c r="H5" s="10" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
+      <c r="A6" s="8">
         <v>5</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="1">
         <v>3</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="G6" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="H6" s="7" t="s">
+      <c r="H6" s="10" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
+      <c r="A7" s="8">
         <v>6</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="1">
         <v>3</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G7" s="4" t="s">
+      <c r="G7" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="H7" s="7" t="s">
+      <c r="H7" s="10" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
+      <c r="A8" s="8">
         <v>7</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="1">
         <v>3</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="F8" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G8" s="4" t="s">
+      <c r="G8" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="H8" s="7"/>
+      <c r="H8" s="10"/>
     </row>
     <row r="9" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
+      <c r="A9" s="8">
         <v>8</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="1">
         <v>3</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="F9" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G9" s="4" t="s">
+      <c r="G9" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="H9" s="7" t="s">
+      <c r="H9" s="10" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
+      <c r="A10" s="8">
         <v>9</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10" s="1">
         <v>3</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="F10" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G10" s="4" t="s">
+      <c r="G10" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="H10" s="7" t="s">
+      <c r="H10" s="10" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
+    <row r="11" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="11">
         <v>10</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E11" s="13">
         <v>9</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="F11" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="G11" s="4" t="s">
+      <c r="G11" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="H11" s="7" t="s">
+      <c r="H11" s="15" t="s">
         <v>17</v>
       </c>
     </row>
